--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H2">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I2">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J2">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N2">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O2">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P2">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q2">
-        <v>1.08177159125</v>
+        <v>10.80602757676375</v>
       </c>
       <c r="R2">
-        <v>4.327086365</v>
+        <v>43.224110307055</v>
       </c>
       <c r="S2">
-        <v>0.0003517468591105637</v>
+        <v>0.001174334306023306</v>
       </c>
       <c r="T2">
-        <v>0.0002350122581454251</v>
+        <v>0.0007227255742722196</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H3">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I3">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J3">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.596253</v>
       </c>
       <c r="O3">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P3">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q3">
-        <v>10.94519492875667</v>
+        <v>30.67609591471716</v>
       </c>
       <c r="R3">
-        <v>65.67116957254001</v>
+        <v>184.056575488303</v>
       </c>
       <c r="S3">
-        <v>0.003558919433347643</v>
+        <v>0.003333694232372338</v>
       </c>
       <c r="T3">
-        <v>0.003566725633472251</v>
+        <v>0.00307750450555023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H4">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I4">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J4">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N4">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O4">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P4">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q4">
-        <v>3.84395541824</v>
+        <v>19.88457071742433</v>
       </c>
       <c r="R4">
-        <v>23.06373250944</v>
+        <v>119.307424304546</v>
       </c>
       <c r="S4">
-        <v>0.00124989346721944</v>
+        <v>0.002160935958023085</v>
       </c>
       <c r="T4">
-        <v>0.00125263500681377</v>
+        <v>0.001994871059991917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H5">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I5">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J5">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N5">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O5">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P5">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q5">
-        <v>101.37210213361</v>
+        <v>235.1690397428162</v>
       </c>
       <c r="R5">
-        <v>405.4884085344399</v>
+        <v>940.6761589712648</v>
       </c>
       <c r="S5">
-        <v>0.03296196610758666</v>
+        <v>0.02555676164276969</v>
       </c>
       <c r="T5">
-        <v>0.02202284366502896</v>
+        <v>0.01572850689967188</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H6">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I6">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J6">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N6">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O6">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P6">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q6">
-        <v>1.305247361576667</v>
+        <v>18.46491586229133</v>
       </c>
       <c r="R6">
-        <v>7.83148416946</v>
+        <v>110.789495173748</v>
       </c>
       <c r="S6">
-        <v>0.0004244118291796034</v>
+        <v>0.002006656377737717</v>
       </c>
       <c r="T6">
-        <v>0.0004253427419849856</v>
+        <v>0.001852447649100768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H7">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I7">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J7">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N7">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O7">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P7">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q7">
-        <v>2.013802223603333</v>
+        <v>20.80898628438333</v>
       </c>
       <c r="R7">
-        <v>12.08281334162</v>
+        <v>124.8539177063</v>
       </c>
       <c r="S7">
-        <v>0.0006548042236936877</v>
+        <v>0.002261395900919793</v>
       </c>
       <c r="T7">
-        <v>0.0006562404834653183</v>
+        <v>0.002087610797154893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>54.548013</v>
       </c>
       <c r="I8">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J8">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N8">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O8">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P8">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q8">
-        <v>8.743591917124999</v>
+        <v>31.1633252835775</v>
       </c>
       <c r="R8">
-        <v>52.46155150274999</v>
+        <v>186.979951701465</v>
       </c>
       <c r="S8">
-        <v>0.002843050251152758</v>
+        <v>0.003386643399741217</v>
       </c>
       <c r="T8">
-        <v>0.002849286250489202</v>
+        <v>0.003126384603658957</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>54.548013</v>
       </c>
       <c r="I9">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J9">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>14.596253</v>
       </c>
       <c r="O9">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P9">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q9">
         <v>88.46628871058766</v>
@@ -1013,10 +1013,10 @@
         <v>796.196598395289</v>
       </c>
       <c r="S9">
-        <v>0.02876553557406755</v>
+        <v>0.009613985992669348</v>
       </c>
       <c r="T9">
-        <v>0.04324294565278063</v>
+        <v>0.01331274697665441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>54.548013</v>
       </c>
       <c r="I10">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J10">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N10">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O10">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P10">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q10">
-        <v>31.069384513856</v>
+        <v>57.34478660075532</v>
       </c>
       <c r="R10">
-        <v>279.624460624704</v>
+        <v>516.1030794067979</v>
       </c>
       <c r="S10">
-        <v>0.0101024638709722</v>
+        <v>0.006231887684763851</v>
       </c>
       <c r="T10">
-        <v>0.01518693420488459</v>
+        <v>0.00862946378301876</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>54.548013</v>
       </c>
       <c r="I11">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J11">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N11">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O11">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P11">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q11">
-        <v>819.3562301014089</v>
+        <v>678.2001276667824</v>
       </c>
       <c r="R11">
-        <v>4916.137380608453</v>
+        <v>4069.200766000694</v>
       </c>
       <c r="S11">
-        <v>0.2664203633761703</v>
+        <v>0.07370272476271145</v>
       </c>
       <c r="T11">
-        <v>0.2670047347598823</v>
+        <v>0.0680387737201567</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>54.548013</v>
       </c>
       <c r="I12">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J12">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N12">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O12">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P12">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q12">
-        <v>10.54987057604567</v>
+        <v>53.25066730236932</v>
       </c>
       <c r="R12">
-        <v>94.948835184411</v>
+        <v>479.256005721324</v>
       </c>
       <c r="S12">
-        <v>0.003430376494597206</v>
+        <v>0.005786963339448917</v>
       </c>
       <c r="T12">
-        <v>0.005156851119371228</v>
+        <v>0.008013364983057146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>54.548013</v>
       </c>
       <c r="I13">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J13">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N13">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O13">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P13">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q13">
-        <v>16.27687858269633</v>
+        <v>60.01069345743334</v>
       </c>
       <c r="R13">
-        <v>146.491907244267</v>
+        <v>540.0962411169</v>
       </c>
       <c r="S13">
-        <v>0.005292559874836182</v>
+        <v>0.006521602462578377</v>
       </c>
       <c r="T13">
-        <v>0.007956253011258156</v>
+        <v>0.009030639688141079</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H14">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I14">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J14">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N14">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O14">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P14">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q14">
-        <v>7.038296962958332</v>
+        <v>40.38644764187166</v>
       </c>
       <c r="R14">
-        <v>42.22978177774999</v>
+        <v>242.31868585123</v>
       </c>
       <c r="S14">
-        <v>0.002288559683238967</v>
+        <v>0.00438895705450973</v>
       </c>
       <c r="T14">
-        <v>0.002293579452643431</v>
+        <v>0.004051671859631897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H15">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I15">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J15">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.596253</v>
       </c>
       <c r="O15">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P15">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q15">
-        <v>71.21238240046544</v>
+        <v>114.6488413726398</v>
       </c>
       <c r="R15">
-        <v>640.911441604189</v>
+        <v>1031.839572353758</v>
       </c>
       <c r="S15">
-        <v>0.02315528716205239</v>
+        <v>0.01245934887851143</v>
       </c>
       <c r="T15">
-        <v>0.03480911459982848</v>
+        <v>0.01725279808395391</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H16">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I16">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J16">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N16">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O16">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P16">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q16">
-        <v>25.00980795278933</v>
+        <v>74.31659492403952</v>
       </c>
       <c r="R16">
-        <v>225.088271575104</v>
+        <v>668.8493543163559</v>
       </c>
       <c r="S16">
-        <v>0.008132143111825359</v>
+        <v>0.00807628208480604</v>
       </c>
       <c r="T16">
-        <v>0.01222497045882649</v>
+        <v>0.01118344669828849</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H17">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I17">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J17">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N17">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O17">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P17">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q17">
-        <v>659.5541649889756</v>
+        <v>878.9207729753814</v>
       </c>
       <c r="R17">
-        <v>3957.324989933853</v>
+        <v>5273.524637852289</v>
       </c>
       <c r="S17">
-        <v>0.2144594180737252</v>
+        <v>0.09551584138105867</v>
       </c>
       <c r="T17">
-        <v>0.2149298173529007</v>
+        <v>0.08817558291554738</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H18">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I18">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J18">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N18">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O18">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P18">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q18">
-        <v>8.492290438390111</v>
+        <v>69.01077684528087</v>
       </c>
       <c r="R18">
-        <v>76.430613945511</v>
+        <v>621.0969916075279</v>
       </c>
       <c r="S18">
-        <v>0.00276133752496377</v>
+        <v>0.007499677578927943</v>
       </c>
       <c r="T18">
-        <v>0.0041510914411286</v>
+        <v>0.01038500681100271</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H19">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I19">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J19">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N19">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O19">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P19">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q19">
-        <v>13.10233896788522</v>
+        <v>77.77150567908889</v>
       </c>
       <c r="R19">
-        <v>117.921050710967</v>
+        <v>699.9435511117999</v>
       </c>
       <c r="S19">
-        <v>0.00426033241789069</v>
+        <v>0.008451741077028825</v>
       </c>
       <c r="T19">
-        <v>0.006404515665465704</v>
+        <v>0.01170335494106966</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H20">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I20">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J20">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N20">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O20">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P20">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q20">
-        <v>4.869548468874998</v>
+        <v>28.7711424413975</v>
       </c>
       <c r="R20">
-        <v>19.47819387549999</v>
+        <v>115.08456976559</v>
       </c>
       <c r="S20">
-        <v>0.001583373415486183</v>
+        <v>0.003126675307128442</v>
       </c>
       <c r="T20">
-        <v>0.001057897610803903</v>
+        <v>0.001924263129601806</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H21">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I21">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J21">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.596253</v>
       </c>
       <c r="O21">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P21">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q21">
-        <v>49.26932601851632</v>
+        <v>81.67537227150233</v>
       </c>
       <c r="R21">
-        <v>295.615956111098</v>
+        <v>490.0522336290139</v>
       </c>
       <c r="S21">
-        <v>0.01602032334522863</v>
+        <v>0.008875989898627925</v>
       </c>
       <c r="T21">
-        <v>0.01605546262062834</v>
+        <v>0.00819388252197536</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H22">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I22">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J22">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N22">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O22">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P22">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q22">
-        <v>17.303400618688</v>
+        <v>52.94284254162465</v>
       </c>
       <c r="R22">
-        <v>103.820403712128</v>
+        <v>317.6570552497479</v>
       </c>
       <c r="S22">
-        <v>0.005626341890271273</v>
+        <v>0.005753510789543972</v>
       </c>
       <c r="T22">
-        <v>0.005638682813292283</v>
+        <v>0.005311361553681872</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H23">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I23">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J23">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N23">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O23">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P23">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q23">
-        <v>456.3221744074069</v>
+        <v>626.1396144126423</v>
       </c>
       <c r="R23">
-        <v>1825.288697629628</v>
+        <v>2504.558457650569</v>
       </c>
       <c r="S23">
-        <v>0.1483768781585743</v>
+        <v>0.06804510023147485</v>
       </c>
       <c r="T23">
-        <v>0.09913488717650334</v>
+        <v>0.04187728646686356</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H24">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I24">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J24">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N24">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O24">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P24">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q24">
-        <v>5.875515074050333</v>
+        <v>49.16299913807065</v>
       </c>
       <c r="R24">
-        <v>35.253090444302</v>
+        <v>294.977994828424</v>
       </c>
       <c r="S24">
-        <v>0.0019104716648788</v>
+        <v>0.00534274006471868</v>
       </c>
       <c r="T24">
-        <v>0.001914662128986723</v>
+        <v>0.00493215798302375</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H25">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I25">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J25">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N25">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O25">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P25">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q25">
-        <v>9.065044427015666</v>
+        <v>55.40410703156667</v>
       </c>
       <c r="R25">
-        <v>54.39026656209399</v>
+        <v>332.4246421894</v>
       </c>
       <c r="S25">
-        <v>0.002947573157486982</v>
+        <v>0.006020986261562106</v>
       </c>
       <c r="T25">
-        <v>0.002954038419311587</v>
+        <v>0.005558281910763991</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H26">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I26">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J26">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N26">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O26">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P26">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q26">
-        <v>0.8706615354583334</v>
+        <v>141.1754223545575</v>
       </c>
       <c r="R26">
-        <v>5.22396921275</v>
+        <v>847.0525341273451</v>
       </c>
       <c r="S26">
-        <v>0.0002831027020149153</v>
+        <v>0.01534209870006063</v>
       </c>
       <c r="T26">
-        <v>0.0002837236647506934</v>
+        <v>0.01416307992962909</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H27">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I27">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J27">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>14.596253</v>
       </c>
       <c r="O27">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P27">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q27">
-        <v>8.809216566272111</v>
+        <v>400.7680682086597</v>
       </c>
       <c r="R27">
-        <v>79.28294909644902</v>
+        <v>3606.912613877937</v>
       </c>
       <c r="S27">
-        <v>0.002864388641256954</v>
+        <v>0.04355307146061031</v>
       </c>
       <c r="T27">
-        <v>0.004306007166923113</v>
+        <v>0.06030911849188864</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H28">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I28">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J28">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N28">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O28">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P28">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q28">
-        <v>3.093799239829334</v>
+        <v>259.7821122914593</v>
       </c>
       <c r="R28">
-        <v>27.844193158464</v>
+        <v>2338.039010623134</v>
       </c>
       <c r="S28">
-        <v>0.001005974065256373</v>
+        <v>0.02823156283730527</v>
       </c>
       <c r="T28">
-        <v>0.001512270881241823</v>
+        <v>0.03909301023479147</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H29">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I29">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J29">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N29">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O29">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P29">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q29">
-        <v>81.58911808203567</v>
+        <v>3072.367553623322</v>
       </c>
       <c r="R29">
-        <v>489.534708492214</v>
+        <v>18434.20532173993</v>
       </c>
       <c r="S29">
-        <v>0.02652936743309671</v>
+        <v>0.3338864900447817</v>
       </c>
       <c r="T29">
-        <v>0.02658755744139571</v>
+        <v>0.3082277815035085</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H30">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I30">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J30">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N30">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O30">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P30">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q30">
-        <v>1.050525527916778</v>
+        <v>241.2350215731213</v>
       </c>
       <c r="R30">
-        <v>9.454729751251001</v>
+        <v>2171.115194158092</v>
       </c>
       <c r="S30">
-        <v>0.0003415869466799454</v>
+        <v>0.02621597618876613</v>
       </c>
       <c r="T30">
-        <v>0.000513504284769743</v>
+        <v>0.03630197277312005</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H31">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I31">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J31">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N31">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O31">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P31">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q31">
-        <v>1.620804382638556</v>
+        <v>271.8591458886334</v>
       </c>
       <c r="R31">
-        <v>14.587239443747</v>
+        <v>2446.7323129977</v>
       </c>
       <c r="S31">
-        <v>0.0005270177692196336</v>
+        <v>0.02954402245925314</v>
       </c>
       <c r="T31">
-        <v>0.0007922606097054407</v>
+        <v>0.04091040864554327</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H32">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I32">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J32">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N32">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O32">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P32">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q32">
-        <v>4.991117355583333</v>
+        <v>43.80365729661667</v>
       </c>
       <c r="R32">
-        <v>29.9467041335</v>
+        <v>262.8219437797</v>
       </c>
       <c r="S32">
-        <v>0.001622902530884576</v>
+        <v>0.004760318917130752</v>
       </c>
       <c r="T32">
-        <v>0.001626462235501688</v>
+        <v>0.00439449508388196</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H33">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I33">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J33">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>14.596253</v>
       </c>
       <c r="O33">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P33">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q33">
-        <v>50.49934090618512</v>
+        <v>124.3495986939578</v>
       </c>
       <c r="R33">
-        <v>454.4940681556661</v>
+        <v>1119.14638824562</v>
       </c>
       <c r="S33">
-        <v>0.01642027272169246</v>
+        <v>0.0135135690381311</v>
       </c>
       <c r="T33">
-        <v>0.0246844338802477</v>
+        <v>0.01871260531202834</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H34">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I34">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J34">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N34">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O34">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P34">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q34">
-        <v>17.73538217979734</v>
+        <v>80.60472870431553</v>
       </c>
       <c r="R34">
-        <v>159.618439618176</v>
+        <v>725.4425583388399</v>
       </c>
       <c r="S34">
-        <v>0.005766804219419989</v>
+        <v>0.008759638773152901</v>
       </c>
       <c r="T34">
-        <v>0.008669179852692112</v>
+        <v>0.01212970922599583</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H35">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I35">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J35">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N35">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O35">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P35">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q35">
-        <v>467.7143145776127</v>
+        <v>953.2887039655166</v>
       </c>
       <c r="R35">
-        <v>2806.285887465676</v>
+        <v>5719.732223793099</v>
       </c>
       <c r="S35">
-        <v>0.1520811254838223</v>
+        <v>0.1035977023618211</v>
       </c>
       <c r="T35">
-        <v>0.1524147030550307</v>
+        <v>0.09563636421336527</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H36">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I36">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J36">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N36">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O36">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P36">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q36">
-        <v>6.022198042903779</v>
+        <v>74.84997060176887</v>
       </c>
       <c r="R36">
-        <v>54.19978238613401</v>
+        <v>673.64973541592</v>
       </c>
       <c r="S36">
-        <v>0.001958166828993428</v>
+        <v>0.008134246156423152</v>
       </c>
       <c r="T36">
-        <v>0.002943692862843054</v>
+        <v>0.01126371111928553</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H37">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I37">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J37">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N37">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O37">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P37">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q37">
-        <v>9.291354395177557</v>
+        <v>84.3519690668889</v>
       </c>
       <c r="R37">
-        <v>83.62218955659802</v>
+        <v>759.1677216020001</v>
       </c>
       <c r="S37">
-        <v>0.003021159690106474</v>
+        <v>0.009166866394906112</v>
       </c>
       <c r="T37">
-        <v>0.004541679537002005</v>
+        <v>0.01269360835112862</v>
       </c>
     </row>
   </sheetData>
